--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ereg-Egfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ereg-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ereg</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.782775603775817</v>
+        <v>0.8489523333333334</v>
       </c>
       <c r="H2">
-        <v>0.782775603775817</v>
+        <v>2.546857</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9028411137296274</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9028411137296274</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N2">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q2">
-        <v>0.4273266100794062</v>
+        <v>0.5931069644460001</v>
       </c>
       <c r="R2">
-        <v>0.4273266100794062</v>
+        <v>5.337962680014001</v>
       </c>
       <c r="S2">
-        <v>0.008360860670826786</v>
+        <v>0.009060915882887653</v>
       </c>
       <c r="T2">
-        <v>0.008360860670826786</v>
+        <v>0.009060915882887651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.782775603775817</v>
+        <v>0.8489523333333334</v>
       </c>
       <c r="H3">
-        <v>0.782775603775817</v>
+        <v>2.546857</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9028411137296274</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9028411137296274</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q3">
-        <v>35.74369708524909</v>
+        <v>38.98080407299857</v>
       </c>
       <c r="R3">
-        <v>35.74369708524909</v>
+        <v>350.8272366569871</v>
       </c>
       <c r="S3">
-        <v>0.6993434626841351</v>
+        <v>0.595511110011459</v>
       </c>
       <c r="T3">
-        <v>0.6993434626841351</v>
+        <v>0.5955111100114588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.782775603775817</v>
+        <v>0.8489523333333334</v>
       </c>
       <c r="H4">
-        <v>0.782775603775817</v>
+        <v>2.546857</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9028411137296274</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9028411137296274</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N4">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q4">
-        <v>0.1318303069022313</v>
+        <v>0.1978622075047778</v>
       </c>
       <c r="R4">
-        <v>0.1318303069022313</v>
+        <v>1.780759867543</v>
       </c>
       <c r="S4">
-        <v>0.00257932645008247</v>
+        <v>0.003022747878669501</v>
       </c>
       <c r="T4">
-        <v>0.00257932645008247</v>
+        <v>0.0030227478786695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.782775603775817</v>
+        <v>0.8489523333333334</v>
       </c>
       <c r="H5">
-        <v>0.782775603775817</v>
+        <v>2.546857</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9028411137296274</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9028411137296274</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N5">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q5">
-        <v>0.3274237487210896</v>
+        <v>0.3719837459920001</v>
       </c>
       <c r="R5">
-        <v>0.3274237487210896</v>
+        <v>3.347853713928</v>
       </c>
       <c r="S5">
-        <v>0.006406210797095311</v>
+        <v>0.005682808724701513</v>
       </c>
       <c r="T5">
-        <v>0.006406210797095311</v>
+        <v>0.005682808724701512</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.782775603775817</v>
+        <v>0.8489523333333334</v>
       </c>
       <c r="H6">
-        <v>0.782775603775817</v>
+        <v>2.546857</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.9028411137296274</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9028411137296274</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N6">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q6">
-        <v>1.941002820033938</v>
+        <v>2.156268180638889</v>
       </c>
       <c r="R6">
-        <v>1.941002820033938</v>
+        <v>19.40641362575</v>
       </c>
       <c r="S6">
-        <v>0.03797669922069691</v>
+        <v>0.03294138456790117</v>
       </c>
       <c r="T6">
-        <v>0.03797669922069691</v>
+        <v>0.03294138456790116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8489523333333334</v>
+      </c>
+      <c r="H7">
+        <v>2.546857</v>
+      </c>
+      <c r="I7">
+        <v>0.9028411137296274</v>
+      </c>
+      <c r="J7">
+        <v>0.9028411137296274</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N7">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O7">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P7">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q7">
+        <v>16.79790259447811</v>
+      </c>
+      <c r="R7">
+        <v>151.181123350303</v>
+      </c>
+      <c r="S7">
+        <v>0.2566221466640088</v>
+      </c>
+      <c r="T7">
+        <v>0.2566221466640087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.09135966666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.274079</v>
+      </c>
+      <c r="I8">
+        <v>0.09715888627037267</v>
+      </c>
+      <c r="J8">
+        <v>0.09715888627037267</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.6986340000000001</v>
+      </c>
+      <c r="N8">
+        <v>2.095902</v>
+      </c>
+      <c r="O8">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="P8">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="Q8">
+        <v>0.06382696936200001</v>
+      </c>
+      <c r="R8">
+        <v>0.574442724258</v>
+      </c>
+      <c r="S8">
+        <v>0.0009750868479329483</v>
+      </c>
+      <c r="T8">
+        <v>0.0009750868479329481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.09135966666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.274079</v>
+      </c>
+      <c r="I9">
+        <v>0.09715888627037267</v>
+      </c>
+      <c r="J9">
+        <v>0.09715888627037267</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N9">
+        <v>137.749091</v>
+      </c>
+      <c r="O9">
+        <v>0.6595968005393648</v>
+      </c>
+      <c r="P9">
+        <v>0.6595968005393646</v>
+      </c>
+      <c r="Q9">
+        <v>4.194903679132112</v>
+      </c>
+      <c r="R9">
+        <v>37.75413311218901</v>
+      </c>
+      <c r="S9">
+        <v>0.06408569052790583</v>
+      </c>
+      <c r="T9">
+        <v>0.06408569052790582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.09135966666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.274079</v>
+      </c>
+      <c r="I10">
+        <v>0.09715888627037267</v>
+      </c>
+      <c r="J10">
+        <v>0.09715888627037267</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2330663333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.699199</v>
+      </c>
+      <c r="O10">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="P10">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="Q10">
+        <v>0.02129286252455556</v>
+      </c>
+      <c r="R10">
+        <v>0.191635762721</v>
+      </c>
+      <c r="S10">
+        <v>0.0003252918070538935</v>
+      </c>
+      <c r="T10">
+        <v>0.0003252918070538935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.09135966666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.274079</v>
+      </c>
+      <c r="I11">
+        <v>0.09715888627037267</v>
+      </c>
+      <c r="J11">
+        <v>0.09715888627037267</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4381680000000001</v>
+      </c>
+      <c r="N11">
+        <v>1.314504</v>
+      </c>
+      <c r="O11">
+        <v>0.006294361918484072</v>
+      </c>
+      <c r="P11">
+        <v>0.006294361918484071</v>
+      </c>
+      <c r="Q11">
+        <v>0.04003088242400001</v>
+      </c>
+      <c r="R11">
+        <v>0.360277941816</v>
+      </c>
+      <c r="S11">
+        <v>0.0006115531937825586</v>
+      </c>
+      <c r="T11">
+        <v>0.0006115531937825586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.782775603775817</v>
-      </c>
-      <c r="H7">
-        <v>0.782775603775817</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>16.0187424315542</v>
-      </c>
-      <c r="N7">
-        <v>16.0187424315542</v>
-      </c>
-      <c r="O7">
-        <v>0.2453334401771635</v>
-      </c>
-      <c r="P7">
-        <v>0.2453334401771635</v>
-      </c>
-      <c r="Q7">
-        <v>12.53908077858914</v>
-      </c>
-      <c r="R7">
-        <v>12.53908077858914</v>
-      </c>
-      <c r="S7">
-        <v>0.2453334401771635</v>
-      </c>
-      <c r="T7">
-        <v>0.2453334401771635</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.09135966666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.274079</v>
+      </c>
+      <c r="I12">
+        <v>0.09715888627037267</v>
+      </c>
+      <c r="J12">
+        <v>0.09715888627037267</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.539916666666667</v>
+      </c>
+      <c r="N12">
+        <v>7.61975</v>
+      </c>
+      <c r="O12">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="P12">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="Q12">
+        <v>0.2320459400277778</v>
+      </c>
+      <c r="R12">
+        <v>2.08841346025</v>
+      </c>
+      <c r="S12">
+        <v>0.003544973958485217</v>
+      </c>
+      <c r="T12">
+        <v>0.003544973958485216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.09135966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.274079</v>
+      </c>
+      <c r="I13">
+        <v>0.09715888627037267</v>
+      </c>
+      <c r="J13">
+        <v>0.09715888627037267</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N13">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O13">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P13">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q13">
+        <v>1.807699586271222</v>
+      </c>
+      <c r="R13">
+        <v>16.269296276441</v>
+      </c>
+      <c r="S13">
+        <v>0.02761628993521224</v>
+      </c>
+      <c r="T13">
+        <v>0.02761628993521224</v>
       </c>
     </row>
   </sheetData>
